--- a/meetings_dumped/simson_cabinet.xlsx
+++ b/meetings_dumped/simson_cabinet.xlsx
@@ -13795,7 +13795,7 @@
       </c>
       <c r="D262" s="2061" t="inlineStr">
         <is>
-          <t>Energie Burgenland AG</t>
+          <t>Burgenland Energie AG</t>
         </is>
       </c>
       <c r="E262" s="2061" t="inlineStr">
